--- a/Clean data sheets/Fertilization.xlsx
+++ b/Clean data sheets/Fertilization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets and code all weeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FBEBF3-0CCC-9149-937C-6D965C0A9962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC2DB72-31A4-6844-AA14-64EE7F4D5A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34460" yWindow="1940" windowWidth="25040" windowHeight="13740" xr2:uid="{F90EBB24-5CFE-9745-9FDA-581433C1C2AE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14240" xr2:uid="{F90EBB24-5CFE-9745-9FDA-581433C1C2AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Week 2</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Acidic</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>128750</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>128750</v>
@@ -493,7 +493,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>128750</v>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>128750</v>
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>128750</v>
@@ -553,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>128750</v>
@@ -573,7 +573,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>643750</v>
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>643750</v>
@@ -613,7 +613,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>643750</v>
@@ -633,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>643750</v>
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>643750</v>
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>643750</v>
@@ -693,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>321875</v>
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>321875</v>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>321875</v>
@@ -753,7 +753,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>321875</v>
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>321875</v>
@@ -793,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>321875</v>
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>160938</v>
@@ -833,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>160938</v>
@@ -853,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>160938</v>
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>160938</v>
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>160938</v>
@@ -913,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>160938</v>
@@ -930,10 +930,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>1250000</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>1250000</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>1250000</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>1250000</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>1250000</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>1250000</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>625000</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>625000</v>
@@ -1090,10 +1090,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>625000</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>625000</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>625000</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>625000</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>312500</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>312500</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>312500</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>312500</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>312500</v>
@@ -1270,10 +1270,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43">
         <v>312500</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>156250</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>156250</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <v>156250</v>
@@ -1350,10 +1350,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>156250</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48">
         <v>156250</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49">
         <v>156250</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>800250</v>
@@ -1430,10 +1430,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>800250</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>800250</v>
@@ -1470,10 +1470,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>800250</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <v>800250</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55">
         <v>800250</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>400125</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>400125</v>
@@ -1570,10 +1570,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>400125</v>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59">
         <v>400125</v>
@@ -1610,10 +1610,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60">
         <v>400125</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61">
         <v>400125</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C62">
         <v>200062</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>200062</v>
@@ -1690,10 +1690,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C64">
         <v>200062</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65">
         <v>200062</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66">
         <v>200062</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>200062</v>
@@ -1770,10 +1770,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C68">
         <v>1600500</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C69">
         <v>1600500</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>1600500</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71">
         <v>1600500</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72">
         <v>1600500</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>1600500</v>
